--- a/MAINTAINCE SHEET (Autosaved).xlsx
+++ b/MAINTAINCE SHEET (Autosaved).xlsx
@@ -911,7 +911,7 @@
     <t>PAID 6 MONTH AMT</t>
   </si>
   <si>
-    <t>I HAVE REMAINING AMOUNT IS - 10480/-</t>
+    <t>I HAVE REMAINING AMOUNT IS - 410/-</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,7 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,14 +1828,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1937,11 +1937,11 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="97" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1955,9 +1955,9 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -2106,11 +2106,11 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="15">
         <f>SUM(E3:E15)</f>
         <v>12692</v>
@@ -2191,14 +2191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2308,7 +2308,7 @@
       <c r="E7" s="76">
         <v>600</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
@@ -2326,7 +2326,7 @@
       <c r="E8" s="76">
         <v>600</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
@@ -2547,14 +2547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2660,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="80"/>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="H7" s="77" t="s">
         <v>130</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="80"/>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
@@ -2893,14 +2893,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3016,7 +3016,7 @@
       <c r="E7" s="81">
         <v>600</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="102" t="s">
         <v>97</v>
       </c>
       <c r="G7" s="85">
@@ -3042,7 +3042,7 @@
       <c r="E8" s="81">
         <v>600</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="81">
@@ -3282,14 +3282,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3402,7 +3402,7 @@
       <c r="E7" s="86">
         <v>600</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="102" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       <c r="E8" s="86">
         <v>600</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
@@ -3655,14 +3655,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3777,7 +3777,7 @@
       <c r="E7" s="87">
         <v>1200</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
@@ -3795,7 +3795,7 @@
       <c r="E8" s="87">
         <v>1200</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,14 +4014,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4129,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="92"/>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="92">
@@ -4145,7 +4145,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="92"/>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="92">
@@ -4163,7 +4163,7 @@
       <c r="E9" s="92">
         <v>600</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="92">
@@ -4263,10 +4263,12 @@
       <c r="C15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="92"/>
+      <c r="D15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="92">
+        <v>600</v>
+      </c>
       <c r="F15" s="82"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4305,7 +4307,7 @@
       </c>
       <c r="E18" s="91">
         <f>SUM(E3:E17)</f>
-        <v>12760</v>
+        <v>13360</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4362,14 +4364,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4469,11 +4471,11 @@
       <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="97" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4487,9 +4489,9 @@
       <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
@@ -4635,11 +4637,11 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="15">
         <f>SUM(E3:E15)</f>
         <v>5400</v>
@@ -4685,14 +4687,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4794,7 +4796,7 @@
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="97" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4810,7 +4812,7 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -4960,11 +4962,11 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="22">
         <f>SUM(E3:E16)</f>
         <v>10800</v>
@@ -5162,15 +5164,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="100"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5298,7 +5300,7 @@
       <c r="F7" s="33">
         <v>1200</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="97" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5321,7 +5323,7 @@
       <c r="F8" s="33">
         <v>1200</v>
       </c>
-      <c r="G8" s="96"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
@@ -5573,14 +5575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5690,7 +5692,7 @@
       <c r="E7" s="47">
         <v>600</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
@@ -5708,7 +5710,7 @@
       <c r="E8" s="47">
         <v>600</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="47">
@@ -5925,14 +5927,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6042,7 +6044,7 @@
       <c r="E7" s="58">
         <v>600</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="58">
@@ -6060,7 +6062,7 @@
       <c r="E8" s="58">
         <v>600</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="58">
@@ -6282,14 +6284,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6399,7 +6401,7 @@
       <c r="E7" s="65">
         <v>600</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
@@ -6417,7 +6419,7 @@
       <c r="E8" s="65">
         <v>600</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
@@ -6637,14 +6639,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6754,7 +6756,7 @@
       <c r="E7" s="71">
         <v>600</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
@@ -6772,7 +6774,7 @@
       <c r="E8" s="71">
         <v>600</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="71">

--- a/MAINTAINCE SHEET (Autosaved).xlsx
+++ b/MAINTAINCE SHEET (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7452" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7452" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="SEPT MONTH" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="SEP-2023" sheetId="14" r:id="rId13"/>
     <sheet name="OCT-2023" sheetId="15" r:id="rId14"/>
     <sheet name="NOV-2023" sheetId="16" r:id="rId15"/>
+    <sheet name="DEC-2023" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'JAN MONTH'!$D$2:$D$21</definedName>
@@ -103,76 +104,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>suraj kamble</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>suraj kamble:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>suraj kamble</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>suraj kamble:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="198">
   <si>
     <t>SR NO</t>
   </si>
@@ -911,7 +844,22 @@
     <t>PAID 6 MONTH AMT</t>
   </si>
   <si>
-    <t>I HAVE REMAINING AMOUNT IS - 410/-</t>
+    <t>370 Paid to MSCB Connection Joint</t>
+  </si>
+  <si>
+    <t>I HAVE REMAINING AMOUNT IS - 1240/-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINTAINCE AMOUNT PENDING FROM LAST 1.12 YEAR </t>
+  </si>
+  <si>
+    <t>HEAVEN PARADISE MAINTAINCE SHEET DEC MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEC MONTH MAINTAINCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEC AMOUNT </t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1471,6 +1419,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,14 +1779,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1937,11 +1888,11 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="98" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1955,9 +1906,9 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -2106,11 +2057,11 @@
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="15">
         <f>SUM(E3:E15)</f>
         <v>12692</v>
@@ -2191,14 +2142,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2308,7 +2259,7 @@
       <c r="E7" s="76">
         <v>600</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="76">
@@ -2326,7 +2277,7 @@
       <c r="E8" s="76">
         <v>600</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="76">
@@ -2547,14 +2498,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2660,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="80"/>
-      <c r="F7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="77" t="s">
         <v>130</v>
       </c>
@@ -2679,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="80"/>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
@@ -2893,14 +2844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3016,7 +2967,7 @@
       <c r="E7" s="81">
         <v>600</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="103" t="s">
         <v>97</v>
       </c>
       <c r="G7" s="85">
@@ -3042,7 +2993,7 @@
       <c r="E8" s="81">
         <v>600</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="81">
@@ -3282,14 +3233,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3402,7 +3353,7 @@
       <c r="E7" s="86">
         <v>600</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="103" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3422,7 +3373,7 @@
       <c r="E8" s="86">
         <v>600</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="86">
@@ -3637,11 +3588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,14 +3606,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -3697,7 +3648,7 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="94">
         <v>3600</v>
       </c>
       <c r="F3" s="53" t="s">
@@ -3777,7 +3728,7 @@
       <c r="E7" s="87">
         <v>1200</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="87">
@@ -3795,7 +3746,7 @@
       <c r="E8" s="87">
         <v>1200</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
@@ -3992,16 +3943,15 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,14 +3964,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4056,7 +4006,7 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="53" t="s">
         <v>105</v>
       </c>
@@ -4125,11 +4075,15 @@
       <c r="C7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="101"/>
+      <c r="D7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="92">
+        <v>415</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="92">
@@ -4141,11 +4095,13 @@
       <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="101"/>
+      <c r="D8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="92">
+        <v>415</v>
+      </c>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="92">
@@ -4307,7 +4263,7 @@
       </c>
       <c r="E18" s="91">
         <f>SUM(E3:E17)</f>
-        <v>13360</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4332,7 +4288,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F25" s="73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4298,340 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="94"/>
+      <c r="F4" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="94">
+        <v>3</v>
+      </c>
+      <c r="B5" s="94">
+        <v>3</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="94"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>4</v>
+      </c>
+      <c r="B6" s="94">
+        <v>4</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="94"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="94">
+        <v>5</v>
+      </c>
+      <c r="B7" s="94">
+        <v>5</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="102"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="94">
+        <v>6</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="F8" s="102"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="94">
+        <v>7</v>
+      </c>
+      <c r="B9" s="94">
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="93"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="94">
+        <v>8</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="94">
+        <v>9</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="94">
+        <v>10</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="94">
+        <v>11</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="94"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="94">
+        <v>12</v>
+      </c>
+      <c r="B14" s="94">
+        <v>9</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="94">
+        <v>13</v>
+      </c>
+      <c r="B15" s="94">
+        <v>10</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="94">
+        <v>14</v>
+      </c>
+      <c r="B16" s="94">
+        <v>11</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="91">
+        <f>SUM(E3:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4364,14 +4653,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4471,11 +4760,11 @@
       <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="98" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4489,9 +4778,9 @@
       <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
@@ -4637,11 +4926,11 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="15">
         <f>SUM(E3:E15)</f>
         <v>5400</v>
@@ -4687,14 +4976,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -4796,7 +5085,7 @@
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="98" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4812,7 +5101,7 @@
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
@@ -4962,11 +5251,11 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="22">
         <f>SUM(E3:E16)</f>
         <v>10800</v>
@@ -5164,15 +5453,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5300,7 +5589,7 @@
       <c r="F7" s="33">
         <v>1200</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="98" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5323,7 +5612,7 @@
       <c r="F8" s="33">
         <v>1200</v>
       </c>
-      <c r="G8" s="97"/>
+      <c r="G8" s="98"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
@@ -5575,14 +5864,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -5692,7 +5981,7 @@
       <c r="E7" s="47">
         <v>600</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
@@ -5710,7 +5999,7 @@
       <c r="E8" s="47">
         <v>600</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="47">
@@ -5927,14 +6216,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6044,7 +6333,7 @@
       <c r="E7" s="58">
         <v>600</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="58">
@@ -6062,7 +6351,7 @@
       <c r="E8" s="58">
         <v>600</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="58">
@@ -6284,14 +6573,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6401,7 +6690,7 @@
       <c r="E7" s="65">
         <v>600</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="65">
@@ -6419,7 +6708,7 @@
       <c r="E8" s="65">
         <v>600</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="65">
@@ -6639,14 +6928,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6756,7 +7045,7 @@
       <c r="E7" s="71">
         <v>600</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
@@ -6774,7 +7063,7 @@
       <c r="E8" s="71">
         <v>600</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
